--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2020.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333C5F6-E0F8-4F1F-B2BE-A5845824CA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C430E9F-41D7-471A-9FD3-46CAFEBD0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="600" windowWidth="16575" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>CSE2025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
   </si>
   <si>
     <t>지구환경과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학문개론 4택1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +517,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,22 +853,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -881,7 +880,7 @@
         <v>55</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,7 +896,7 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G2">
@@ -929,7 +928,7 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -944,7 +943,7 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -959,7 +958,7 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -974,7 +973,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -989,7 +988,7 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1004,7 +1003,7 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1019,7 +1018,7 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1034,7 +1033,7 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1049,7 +1048,7 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1064,7 +1063,7 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1079,7 +1078,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1096,7 +1095,7 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1111,7 +1110,7 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1126,7 +1125,7 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1141,7 +1140,7 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1156,7 +1155,7 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1171,7 +1170,7 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1186,7 +1185,7 @@
       <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1203,7 +1202,7 @@
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1218,7 +1217,7 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1233,8 +1232,8 @@
       <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>103</v>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1249,7 @@
       <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1265,7 +1264,7 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1280,7 +1279,7 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1295,7 +1294,7 @@
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1310,7 +1309,7 @@
       <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1327,7 +1326,7 @@
       <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1342,7 +1341,7 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1357,7 +1356,7 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1374,7 +1373,7 @@
       <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1389,7 +1388,7 @@
       <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1404,7 +1403,7 @@
       <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1419,7 +1418,7 @@
       <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1434,7 +1433,7 @@
       <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1505,9 +1504,7 @@
       <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1555,10 +1552,9 @@
       <c r="E44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E41:E44"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E31:E36"/>
     <mergeCell ref="E20:E22"/>
